--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.ValueSet.Read.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.ValueSet.Read.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,10 +271,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -293,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -693,6 +689,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2479,16 +2479,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2513,28 +2513,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2584,13 +2584,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2630,25 +2630,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2699,19 +2699,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2745,28 +2745,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2816,19 +2816,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2862,7 +2862,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2874,16 +2874,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2909,43 +2909,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2968,18 +2968,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2991,16 +2991,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3050,25 +3050,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3085,11 +3085,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3108,16 +3108,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3167,7 +3167,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3185,7 +3185,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3202,11 +3202,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3225,16 +3225,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3284,7 +3284,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3296,13 +3296,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3319,11 +3319,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3336,25 +3336,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3403,7 +3403,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3415,13 +3415,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3481,73 +3481,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3575,20 +3575,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3613,29 +3613,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3647,19 +3647,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3683,39 +3683,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3730,14 +3730,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3766,19 +3766,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3802,39 +3802,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3849,14 +3849,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3885,19 +3885,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3908,42 +3908,42 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3953,7 +3953,7 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>78</v>
@@ -3968,14 +3968,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4004,19 +4004,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4038,29 +4038,29 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4070,70 +4070,70 @@
         <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
+      <c r="X16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4155,7 +4155,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4167,16 +4167,16 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4226,42 +4226,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4269,34 +4269,34 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4345,42 +4345,42 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4391,28 +4391,28 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4438,55 +4438,55 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4508,19 +4508,19 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>214</v>
@@ -4577,19 +4577,19 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4601,7 +4601,7 @@
         <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4632,7 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>219</v>
@@ -4670,7 +4670,7 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X21" t="s" s="2">
         <v>223</v>
@@ -4706,7 +4706,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>225</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>80</v>
@@ -4808,13 +4808,13 @@
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4823,7 +4823,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>239</v>
@@ -4857,7 +4857,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4869,7 +4869,7 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>246</v>
@@ -4932,7 +4932,7 @@
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4984,16 +4984,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5055,7 +5055,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -5095,13 +5095,13 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>255</v>
@@ -5110,10 +5110,10 @@
         <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -5174,13 +5174,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -5208,7 +5208,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -5253,7 +5253,7 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>261</v>
@@ -5283,13 +5283,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>263</v>
@@ -5408,7 +5408,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5442,16 +5442,16 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>280</v>
@@ -5521,13 +5521,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>285</v>
@@ -5561,7 +5561,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5573,7 +5573,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>291</v>
@@ -5638,13 +5638,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5678,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5690,7 +5690,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>297</v>
@@ -5755,13 +5755,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5792,19 +5792,19 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>303</v>
@@ -5871,16 +5871,16 @@
         <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5914,7 +5914,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5989,13 +5989,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>314</v>
@@ -6041,7 +6041,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>320</v>
@@ -6114,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6148,7 +6148,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6160,7 +6160,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>328</v>
@@ -6195,7 +6195,7 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>331</v>
@@ -6225,13 +6225,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6265,7 +6265,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6340,13 +6340,13 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6380,7 +6380,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6392,7 +6392,7 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>246</v>
@@ -6455,7 +6455,7 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6507,16 +6507,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6578,7 +6578,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6618,13 +6618,13 @@
         <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>255</v>
@@ -6633,10 +6633,10 @@
         <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6697,13 +6697,13 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6731,7 +6731,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6743,7 +6743,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>343</v>
@@ -6810,13 +6810,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6850,7 +6850,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6862,7 +6862,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>351</v>
@@ -6897,7 +6897,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>354</v>
@@ -6927,13 +6927,13 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -7014,7 +7014,7 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>223</v>
@@ -7050,7 +7050,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -7083,10 +7083,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7162,7 +7162,7 @@
         <v>231</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7171,7 +7171,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>239</v>
@@ -7205,7 +7205,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7217,7 +7217,7 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>246</v>
@@ -7280,7 +7280,7 @@
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7332,16 +7332,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7403,7 +7403,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -7443,13 +7443,13 @@
         <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>255</v>
@@ -7458,10 +7458,10 @@
         <v>256</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7522,13 +7522,13 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -7553,10 +7553,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7601,7 +7601,7 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>261</v>
@@ -7631,13 +7631,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>263</v>
@@ -7756,7 +7756,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7787,19 +7787,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>280</v>
@@ -7869,13 +7869,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>285</v>
@@ -7909,7 +7909,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7921,7 +7921,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>291</v>
@@ -7986,13 +7986,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8026,7 +8026,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8038,7 +8038,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>297</v>
@@ -8103,13 +8103,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8140,19 +8140,19 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>303</v>
@@ -8219,16 +8219,16 @@
         <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8262,7 +8262,7 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8337,13 +8337,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>314</v>
@@ -8389,7 +8389,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>320</v>
@@ -8462,7 +8462,7 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8508,7 +8508,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>328</v>
@@ -8543,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>331</v>
@@ -8573,13 +8573,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8610,10 +8610,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8688,13 +8688,13 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8728,7 +8728,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8740,7 +8740,7 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>246</v>
@@ -8803,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8855,16 +8855,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8926,7 +8926,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8966,13 +8966,13 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>255</v>
@@ -8981,10 +8981,10 @@
         <v>256</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -9045,13 +9045,13 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -9079,7 +9079,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9091,7 +9091,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>343</v>
@@ -9158,13 +9158,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9198,7 +9198,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9210,7 +9210,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>351</v>
@@ -9245,7 +9245,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>354</v>
@@ -9275,13 +9275,13 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9362,7 +9362,7 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>223</v>
@@ -9398,7 +9398,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9431,10 +9431,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9510,7 +9510,7 @@
         <v>231</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9519,7 +9519,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>239</v>
@@ -9553,7 +9553,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9565,7 +9565,7 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>246</v>
@@ -9628,7 +9628,7 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9680,16 +9680,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9751,7 +9751,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9791,13 +9791,13 @@
         <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>255</v>
@@ -9806,10 +9806,10 @@
         <v>256</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9870,13 +9870,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9901,10 +9901,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9949,7 +9949,7 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>261</v>
@@ -9979,13 +9979,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>263</v>
@@ -10104,7 +10104,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10135,19 +10135,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>280</v>
@@ -10217,13 +10217,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>285</v>
@@ -10257,7 +10257,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10269,7 +10269,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>291</v>
@@ -10334,13 +10334,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10374,7 +10374,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10386,7 +10386,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>297</v>
@@ -10451,13 +10451,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10488,19 +10488,19 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>303</v>
@@ -10567,16 +10567,16 @@
         <v>302</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10610,7 +10610,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10685,13 +10685,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>314</v>
@@ -10737,7 +10737,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>320</v>
@@ -10810,7 +10810,7 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10856,7 +10856,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>328</v>
@@ -10891,7 +10891,7 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>331</v>
@@ -10921,13 +10921,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10958,10 +10958,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -11036,13 +11036,13 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11076,7 +11076,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -11088,7 +11088,7 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>246</v>
@@ -11151,7 +11151,7 @@
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11203,16 +11203,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11274,7 +11274,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11314,13 +11314,13 @@
         <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>255</v>
@@ -11329,10 +11329,10 @@
         <v>256</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11393,13 +11393,13 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -11427,7 +11427,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11439,7 +11439,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>343</v>
@@ -11506,13 +11506,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11546,7 +11546,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11558,7 +11558,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>351</v>
@@ -11593,7 +11593,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>354</v>
@@ -11623,13 +11623,13 @@
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11710,7 +11710,7 @@
         <v>78</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>223</v>
@@ -11746,7 +11746,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11782,7 +11782,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11858,7 +11858,7 @@
         <v>231</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11867,7 +11867,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>239</v>
@@ -11901,7 +11901,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11913,7 +11913,7 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>246</v>
@@ -11976,7 +11976,7 @@
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12028,16 +12028,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12099,7 +12099,7 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
@@ -12139,13 +12139,13 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>255</v>
@@ -12154,10 +12154,10 @@
         <v>256</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -12218,13 +12218,13 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
@@ -12249,10 +12249,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -12297,7 +12297,7 @@
         <v>78</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>261</v>
@@ -12327,13 +12327,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>263</v>
@@ -12370,7 +12370,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12452,7 +12452,7 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12483,19 +12483,19 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>280</v>
@@ -12565,13 +12565,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>285</v>
@@ -12605,7 +12605,7 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
@@ -12617,7 +12617,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>291</v>
@@ -12682,13 +12682,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12722,11 +12722,11 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>297</v>
@@ -12799,13 +12799,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12836,19 +12836,19 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>303</v>
@@ -12915,16 +12915,16 @@
         <v>302</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12958,7 +12958,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
@@ -13033,13 +13033,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>314</v>
@@ -13085,7 +13085,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>320</v>
@@ -13158,7 +13158,7 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13204,7 +13204,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>328</v>
@@ -13239,7 +13239,7 @@
         <v>78</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X94" t="s" s="2">
         <v>331</v>
@@ -13269,13 +13269,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13384,13 +13384,13 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13424,7 +13424,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -13436,7 +13436,7 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>246</v>
@@ -13499,7 +13499,7 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13551,16 +13551,16 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13622,7 +13622,7 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13662,13 +13662,13 @@
         <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>255</v>
@@ -13677,10 +13677,10 @@
         <v>256</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>78</v>
@@ -13741,13 +13741,13 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
@@ -13775,7 +13775,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13787,7 +13787,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>343</v>
@@ -13854,13 +13854,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13894,7 +13894,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13906,7 +13906,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>351</v>
@@ -13941,7 +13941,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>354</v>
@@ -13971,13 +13971,13 @@
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -14014,7 +14014,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14058,7 +14058,7 @@
         <v>78</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X101" t="s" s="2">
         <v>223</v>
@@ -14094,7 +14094,7 @@
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14125,13 +14125,13 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14204,16 +14204,16 @@
         <v>370</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14247,7 +14247,7 @@
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>78</v>
@@ -14259,7 +14259,7 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>246</v>
@@ -14322,7 +14322,7 @@
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14374,16 +14374,16 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14445,7 +14445,7 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14485,13 +14485,13 @@
         <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>255</v>
@@ -14500,10 +14500,10 @@
         <v>256</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>78</v>
@@ -14564,13 +14564,13 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>78</v>
@@ -14598,7 +14598,7 @@
         <v>79</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>78</v>
@@ -14610,7 +14610,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>382</v>
@@ -14675,13 +14675,13 @@
         <v>79</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14712,19 +14712,19 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>280</v>
@@ -14789,16 +14789,16 @@
         <v>387</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14844,7 +14844,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>394</v>
@@ -14879,7 +14879,7 @@
         <v>78</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>397</v>
@@ -14915,7 +14915,7 @@
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>80</v>
@@ -15017,7 +15017,7 @@
         <v>78</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>401</v>
@@ -15044,7 +15044,7 @@
         <v>409</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>410</v>
@@ -15066,7 +15066,7 @@
         <v>79</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>78</v>
@@ -15078,7 +15078,7 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>246</v>
@@ -15141,7 +15141,7 @@
         <v>79</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15193,16 +15193,16 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15264,7 +15264,7 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15304,13 +15304,13 @@
         <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>255</v>
@@ -15319,10 +15319,10 @@
         <v>256</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>78</v>
@@ -15383,13 +15383,13 @@
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>78</v>
@@ -15417,16 +15417,16 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>416</v>
@@ -15492,13 +15492,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15510,7 +15510,7 @@
         <v>419</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15532,7 +15532,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15544,7 +15544,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>422</v>
@@ -15581,7 +15581,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>426</v>
@@ -15611,13 +15611,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15629,7 +15629,7 @@
         <v>429</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>430</v>
@@ -15651,7 +15651,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15663,7 +15663,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>433</v>
@@ -15698,7 +15698,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>436</v>
@@ -15728,13 +15728,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15768,7 +15768,7 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>78</v>
@@ -15780,7 +15780,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>443</v>
@@ -15817,7 +15817,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>444</v>
@@ -15847,13 +15847,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15899,7 +15899,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>452</v>
@@ -15936,7 +15936,7 @@
         <v>78</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X117" t="s" s="2">
         <v>456</v>
@@ -15972,7 +15972,7 @@
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16006,19 +16006,19 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>461</v>
@@ -16085,13 +16085,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16125,7 +16125,7 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -16137,7 +16137,7 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>470</v>
@@ -16202,13 +16202,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16242,16 +16242,16 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I120" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>475</v>
@@ -16321,13 +16321,13 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16444,7 +16444,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16478,7 +16478,7 @@
         <v>79</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>78</v>
@@ -16490,7 +16490,7 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>246</v>
@@ -16553,7 +16553,7 @@
         <v>79</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>78</v>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16605,16 +16605,16 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16676,7 +16676,7 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16716,13 +16716,13 @@
         <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>255</v>
@@ -16731,10 +16731,10 @@
         <v>256</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>78</v>
@@ -16795,13 +16795,13 @@
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>78</v>
@@ -16826,10 +16826,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16841,7 +16841,7 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>492</v>
@@ -16901,16 +16901,16 @@
         <v>491</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16941,10 +16941,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17020,16 +17020,16 @@
         <v>495</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>78</v>
@@ -17065,7 +17065,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17162,7 +17162,7 @@
         <v>409</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>410</v>
@@ -17184,7 +17184,7 @@
         <v>79</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>78</v>
@@ -17196,7 +17196,7 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>246</v>
@@ -17259,7 +17259,7 @@
         <v>79</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17311,16 +17311,16 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17382,7 +17382,7 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17422,13 +17422,13 @@
         <v>78</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>255</v>
@@ -17437,10 +17437,10 @@
         <v>256</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>78</v>
@@ -17501,13 +17501,13 @@
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>78</v>
@@ -17535,16 +17535,16 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I131" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>416</v>
@@ -17610,13 +17610,13 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17628,7 +17628,7 @@
         <v>419</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17650,7 +17650,7 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>78</v>
@@ -17662,7 +17662,7 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>246</v>
@@ -17725,7 +17725,7 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
@@ -17758,7 +17758,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17777,16 +17777,16 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17833,7 +17833,7 @@
         <v>78</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>252</v>
@@ -17848,7 +17848,7 @@
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
@@ -17882,19 +17882,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>509</v>
@@ -17959,19 +17959,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>513</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -17999,19 +17999,19 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J135" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>515</v>
@@ -18046,7 +18046,7 @@
         <v>78</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X135" t="s" s="2">
         <v>518</v>
@@ -18076,19 +18076,19 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>78</v>
@@ -18116,16 +18116,16 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>522</v>
@@ -18193,13 +18193,13 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18233,7 +18233,7 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
@@ -18245,7 +18245,7 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>246</v>
@@ -18308,7 +18308,7 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18360,16 +18360,16 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18416,7 +18416,7 @@
         <v>78</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>252</v>
@@ -18431,7 +18431,7 @@
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18465,19 +18465,19 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I139" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>531</v>
@@ -18514,7 +18514,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>535</v>
@@ -18544,13 +18544,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18584,16 +18584,16 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>219</v>
@@ -18633,7 +18633,7 @@
         <v>78</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>544</v>
@@ -18663,13 +18663,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18703,19 +18703,19 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>548</v>
@@ -18782,13 +18782,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18819,22 +18819,22 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>556</v>
@@ -18899,13 +18899,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18939,19 +18939,19 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>563</v>
@@ -19014,13 +19014,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19054,16 +19054,16 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J144" t="s" s="2">
         <v>568</v>
@@ -19131,13 +19131,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19171,19 +19171,19 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I145" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J145" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>575</v>
@@ -19248,19 +19248,19 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>78</v>
@@ -19285,10 +19285,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19300,7 +19300,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>422</v>
@@ -19337,7 +19337,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>426</v>
@@ -19367,13 +19367,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19385,7 +19385,7 @@
         <v>429</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>430</v>
@@ -19407,7 +19407,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19419,7 +19419,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>433</v>
@@ -19454,7 +19454,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>436</v>
@@ -19484,13 +19484,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19524,7 +19524,7 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -19536,7 +19536,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>443</v>
@@ -19573,7 +19573,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>444</v>
@@ -19603,13 +19603,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19655,7 +19655,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>452</v>
@@ -19692,7 +19692,7 @@
         <v>78</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>456</v>
@@ -19728,7 +19728,7 @@
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19762,19 +19762,19 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>461</v>
@@ -19841,13 +19841,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19881,7 +19881,7 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>78</v>
@@ -19893,7 +19893,7 @@
         <v>78</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>470</v>
@@ -19958,13 +19958,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -19998,16 +19998,16 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I152" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>475</v>
@@ -20077,13 +20077,13 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20200,7 +20200,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20234,7 +20234,7 @@
         <v>79</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>78</v>
@@ -20246,7 +20246,7 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>246</v>
@@ -20309,7 +20309,7 @@
         <v>79</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>78</v>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20361,16 +20361,16 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K155" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -20432,7 +20432,7 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20472,13 +20472,13 @@
         <v>78</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>255</v>
@@ -20487,10 +20487,10 @@
         <v>256</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>78</v>
@@ -20551,13 +20551,13 @@
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>78</v>
@@ -20582,10 +20582,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20597,7 +20597,7 @@
         <v>78</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>492</v>
@@ -20657,16 +20657,16 @@
         <v>491</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20697,10 +20697,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20776,16 +20776,16 @@
         <v>495</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>78</v>
@@ -20818,10 +20818,10 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20918,7 +20918,7 @@
         <v>409</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>410</v>
@@ -20940,7 +20940,7 @@
         <v>79</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>78</v>
@@ -20952,7 +20952,7 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>246</v>
@@ -21015,7 +21015,7 @@
         <v>79</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>78</v>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21067,16 +21067,16 @@
         <v>78</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L161" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21138,7 +21138,7 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21178,13 +21178,13 @@
         <v>78</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>255</v>
@@ -21193,10 +21193,10 @@
         <v>256</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>78</v>
@@ -21257,13 +21257,13 @@
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>78</v>
@@ -21288,19 +21288,19 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I163" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J163" t="s" s="2">
         <v>581</v>
@@ -21366,13 +21366,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21384,7 +21384,7 @@
         <v>419</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>78</v>
@@ -21403,10 +21403,10 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21418,7 +21418,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>422</v>
@@ -21455,7 +21455,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>426</v>
@@ -21485,13 +21485,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21503,7 +21503,7 @@
         <v>429</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>430</v>
@@ -21525,7 +21525,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21537,7 +21537,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>433</v>
@@ -21572,7 +21572,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X165" s="2"/>
       <c r="Y165" t="s" s="2">
@@ -21600,13 +21600,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21640,7 +21640,7 @@
         <v>79</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>78</v>
@@ -21652,7 +21652,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>443</v>
@@ -21689,7 +21689,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>444</v>
@@ -21719,13 +21719,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21771,7 +21771,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>585</v>
@@ -21808,7 +21808,7 @@
         <v>78</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X167" t="s" s="2">
         <v>456</v>
@@ -21844,7 +21844,7 @@
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21878,19 +21878,19 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I168" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>461</v>
@@ -21957,13 +21957,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -21997,7 +21997,7 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>78</v>
@@ -22009,7 +22009,7 @@
         <v>78</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>470</v>
@@ -22074,13 +22074,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22114,16 +22114,16 @@
         <v>79</v>
       </c>
       <c r="F170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I170" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>475</v>
@@ -22193,13 +22193,13 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22316,7 +22316,7 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22350,7 +22350,7 @@
         <v>79</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>78</v>
@@ -22362,7 +22362,7 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>246</v>
@@ -22425,7 +22425,7 @@
         <v>79</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
@@ -22458,7 +22458,7 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22477,16 +22477,16 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22548,7 +22548,7 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22588,13 +22588,13 @@
         <v>78</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>255</v>
@@ -22603,10 +22603,10 @@
         <v>256</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>78</v>
@@ -22667,13 +22667,13 @@
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>78</v>
@@ -22698,10 +22698,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22713,7 +22713,7 @@
         <v>78</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>492</v>
@@ -22773,16 +22773,16 @@
         <v>491</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
@@ -22813,10 +22813,10 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22892,16 +22892,16 @@
         <v>495</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>78</v>
